--- a/statistics/HistoricalDistanceData/historical_distance/Q5600047-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5600047-en.xlsx
@@ -31,6 +31,9 @@
     <t>uri</t>
   </si>
   <si>
+    <t>January 12, 1975</t>
+  </si>
+  <si>
     <t>Tornado History Project: January 9, 1975</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>Saturday, October 28, 2000</t>
   </si>
   <si>
-    <t>January 12, 1975</t>
+    <t>1975-01-12T00:00:00UTC</t>
   </si>
   <si>
     <t>1975-01-09T00:00:00UTC</t>
@@ -58,15 +61,15 @@
     <t>2000-10-28T00:00:00UTC</t>
   </si>
   <si>
-    <t>1975-01-12T00:00:00UTC</t>
-  </si>
-  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://www.tornadohistoryproject.com/tornado/1975/1/12/table</t>
+  </si>
+  <si>
     <t>http://www.tornadohistoryproject.com/tornado/1975/1/9/table</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t>http://prairiehome.publicradio.org/programs/20001028/winter.html</t>
-  </si>
-  <si>
-    <t>http://www.tornadohistoryproject.com/tornado/1975/1/12/table</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -498,10 +498,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>11330</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11330</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -532,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>9432</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -549,10 +549,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>9432</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
